--- a/backend/fiche/fiche21.12.7195.xlsx
+++ b/backend/fiche/fiche21.12.7195.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>sécrétariat général</t>
   </si>
@@ -76,10 +76,13 @@
     <t xml:space="preserve">Photocopieur KYOCERA FS-1025 MFP </t>
   </si>
   <si>
-    <t>Le Magasinier</t>
-  </si>
-  <si>
-    <t>Le Directeur</t>
+    <t>Photocopieur LEX MARK MX510</t>
+  </si>
+  <si>
+    <t>Photorecepteur pour panasonic dp 8060</t>
+  </si>
+  <si>
+    <t>Photorecepteur pour XEROX Workcenter 5230</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -158,9 +161,6 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -598,27 +598,97 @@
       <c r="I15" s="3">
         <v>0.0</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="A16" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3">
+        <v>55.0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3">
+        <v>56.0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="3"/>
     </row>
     <row r="18">
-      <c r="C18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A18" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3">
+        <v>57.0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/backend/fiche/fiche21.12.7195.xlsx
+++ b/backend/fiche/fiche21.12.7195.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>sécrétariat général</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Photorecepteur pour XEROX Workcenter 5230</t>
+  </si>
+  <si>
+    <t>Magasinier</t>
+  </si>
+  <si>
+    <t>Directeur</t>
   </si>
 </sst>
 </file>
@@ -147,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -161,6 +167,9 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -375,7 +384,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -690,6 +699,14 @@
       </c>
       <c r="J18" s="3"/>
     </row>
+    <row r="21">
+      <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:B1"/>

--- a/backend/fiche/fiche21.12.7195.xlsx
+++ b/backend/fiche/fiche21.12.7195.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>sécrétariat général</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Photorecepteur pour panasonic dp 8060</t>
-  </si>
-  <si>
-    <t>Photorecepteur pour XEROX Workcenter 5230</t>
   </si>
   <si>
     <t>Magasinier</t>
@@ -153,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -171,6 +168,16 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,40 +678,189 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3">
+        <v>58.0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3">
+        <v>59.0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3">
+        <v>61.0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7">
+        <v>55.0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="9">
+        <v>7.0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="3">
-        <v>57.0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
